--- a/Documents/概要设计-数据结构new.xlsx
+++ b/Documents/概要设计-数据结构new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7630" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="8720" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,38 @@
   </si>
   <si>
     <t>VehicleState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点X坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点Y坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
@@ -780,36 +812,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -822,16 +854,16 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>58</v>
       </c>
@@ -841,16 +873,16 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>71</v>
       </c>
@@ -860,16 +892,16 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -879,13 +911,13 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -897,7 +929,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -905,7 +937,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -915,13 +947,13 @@
       <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>57</v>
       </c>
@@ -931,7 +963,7 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
@@ -951,37 +983,37 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -991,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1007,25 +1039,25 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1081,106 +1113,134 @@
         <v>73</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1188,8 +1248,8 @@
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,25 +1276,25 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1358,25 +1418,25 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
